--- a/xlsx/Citroen_intext.xlsx
+++ b/xlsx/Citroen_intext.xlsx
@@ -29,7 +29,7 @@
     <t>法国</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Citroen</t>
+    <t>政策_政策_混合动力车辆_Citroen</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%97%BA_(%E5%A1%9E%E7%BA%B3-%E5%9C%A3%E4%BD%86%E5%B0%BC%E7%9C%81)</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99%E5%87%AF%E6%97%8B</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8DGT</t>
   </si>
   <si>
-    <t>雪鐵龍GT</t>
+    <t>雪铁龙GT</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B2010%E5%B9%B4%E4%B8%8A%E6%B5%B7%E4%B8%96%E7%95%8C%E5%8D%9A%E8%A6%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>中國2010年上海世界博覽會</t>
+    <t>中国2010年上海世界博览会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB</t>
   </si>
   <si>
-    <t>標緻</t>
+    <t>标致</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8DDS3</t>
   </si>
   <si>
-    <t>雪鐵龍DS3</t>
+    <t>雪铁龙DS3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99C4%E6%AF%95%E5%8A%A0%E7%B4%A2</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8DM35</t>
   </si>
   <si>
-    <t>雪鐵龍M35</t>
+    <t>雪铁龙M35</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99Xsara</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>法國經濟</t>
+    <t>法国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>法國交通</t>
+    <t>法国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%A8%E5%AE%A2%E8%BD%A6</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>標緻汽車</t>
+    <t>标致汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AF%BA</t>
@@ -365,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>巴黎車展</t>
+    <t>巴黎车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
